--- a/LoowooTech.Land.Zhoushan.Web/templates/舟山整理/国土资源违法案件-导入.xlsx
+++ b/LoowooTech.Land.Zhoushan.Web/templates/舟山整理/国土资源违法案件-导入.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>{Form=9}</t>
   </si>
@@ -79,48 +79,6 @@
   </si>
   <si>
     <t xml:space="preserve">    {Node=124}</t>
-  </si>
-  <si>
-    <t>分区土地违法案件立案</t>
-  </si>
-  <si>
-    <t>{Quarter}季度件数（件）</t>
-  </si>
-  <si>
-    <t>{Quarter}季度涉案面积（亩）</t>
-  </si>
-  <si>
-    <t>{Area=1}</t>
-  </si>
-  <si>
-    <t>{Value=3 Node=112}</t>
-  </si>
-  <si>
-    <t>{Value=1 Node=113}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    其中：{Area=2}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          {Area=9}</t>
-  </si>
-  <si>
-    <t>{Area=3}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    其中：{Area=10}</t>
-  </si>
-  <si>
-    <t>{Area=5}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    其中：{Area=11}</t>
-  </si>
-  <si>
-    <t>{Area=4}</t>
-  </si>
-  <si>
-    <t>{Area=6}</t>
   </si>
 </sst>
 </file>
@@ -128,12 +86,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,9 +114,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -169,62 +137,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -236,70 +226,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,19 +273,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,19 +357,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,139 +423,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,17 +476,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,26 +509,37 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,22 +559,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -628,10 +581,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -640,137 +593,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -790,15 +743,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1121,10 +1065,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1154,7 +1098,7 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" ht="14.25" spans="1:4">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1311,152 +1255,17 @@
       <c r="B16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="4">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A17:A18"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B17:B18"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C17:C18"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/LoowooTech.Land.Zhoushan.Web/templates/舟山整理/国土资源违法案件-导入.xlsx
+++ b/LoowooTech.Land.Zhoushan.Web/templates/舟山整理/国土资源违法案件-导入.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="7830"/>
+    <workbookView windowWidth="19005" windowHeight="10950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
-  <si>
-    <t>{Form=9}</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+  <si>
+    <t>{Form=8} 8</t>
   </si>
   <si>
     <t>国土资源违法案件查处情况（亩）</t>
@@ -30,55 +30,97 @@
     <t>{Rate}同比%</t>
   </si>
   <si>
-    <t>{Node=112}</t>
-  </si>
-  <si>
-    <t>{Value=3}</t>
+    <t>土地违法案件（件）</t>
+  </si>
+  <si>
+    <t>{Value=2}</t>
   </si>
   <si>
     <t>{RateValue=1}</t>
   </si>
   <si>
-    <t xml:space="preserve">    {Node=113}</t>
+    <t xml:space="preserve">    涉及土地面积</t>
   </si>
   <si>
     <t>{Value=1}</t>
   </si>
   <si>
-    <t xml:space="preserve">        其中：{Node=114}</t>
-  </si>
-  <si>
-    <t>{Node=115}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {Node=116}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        其中：{Node=117}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {Node=118}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {Node=119}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {Node=120}</t>
-  </si>
-  <si>
-    <t>{Value=5}</t>
-  </si>
-  <si>
-    <t>{Node=121}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {Node=122}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {Node=123}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {Node=124}</t>
+    <t xml:space="preserve">        其中：耕地</t>
+  </si>
+  <si>
+    <t>土地违法结案（件）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    收回土地面积</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    {Node=71}拆除建筑面积</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    {Node=72}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    {Node=73}</t>
+  </si>
+  <si>
+    <t>{Value=4}</t>
+  </si>
+  <si>
+    <t>{Node=74}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    {Node=75}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    {Node=76}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    {Node=77}</t>
+  </si>
+  <si>
+    <t>分区土地违法案件立案</t>
+  </si>
+  <si>
+    <t>{Quarter}件数（件）</t>
+  </si>
+  <si>
+    <t>{Quarter}涉案面积（亩）</t>
+  </si>
+  <si>
+    <t>{Area=1}</t>
+  </si>
+  <si>
+    <t>{Value=2 Node=65}</t>
+  </si>
+  <si>
+    <t>{Value=1 Node=66}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    其中:{Area=6}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          {Area=7}</t>
+  </si>
+  <si>
+    <t>{Area=2}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    其中：{Area=8}</t>
+  </si>
+  <si>
+    <t>{Area=3}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    其中：{Area=9}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          {Area=10}</t>
+  </si>
+  <si>
+    <t>{Area=4}</t>
+  </si>
+  <si>
+    <t>{Area=5}</t>
   </si>
 </sst>
 </file>
@@ -86,23 +128,30 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="黑体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF0099FF"/>
       <name val="黑体"/>
       <charset val="134"/>
     </font>
@@ -114,16 +163,127 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,120 +305,14 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -267,49 +321,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF0099FF"/>
+        <bgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,139 +519,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,7 +537,55 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color rgb="FF0099FF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,6 +595,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,30 +631,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -534,45 +639,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -581,10 +647,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -593,157 +659,172 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -801,6 +882,7 @@
   <colors>
     <mruColors>
       <color rgb="000000FF"/>
+      <color rgb="000099FF"/>
     </mruColors>
   </colors>
 </styleSheet>
@@ -1065,20 +1147,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="24.375" customWidth="1"/>
-    <col min="3" max="3" width="26.75" customWidth="1"/>
+    <col min="2" max="2" width="15.75" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" ht="22" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1166,7 +1248,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>8</v>
@@ -1178,7 +1260,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>8</v>
@@ -1190,7 +1272,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>8</v>
@@ -1202,10 +1284,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>6</v>
@@ -1214,7 +1296,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>5</v>
@@ -1226,7 +1308,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>5</v>
@@ -1238,7 +1320,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>5</v>
@@ -1250,22 +1332,163 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="2"/>
     </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" ht="14.25" spans="1:4">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A17:A18"/>
     <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B17:B18"/>
     <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C17:C18"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/LoowooTech.Land.Zhoushan.Web/templates/舟山整理/国土资源违法案件-导入.xlsx
+++ b/LoowooTech.Land.Zhoushan.Web/templates/舟山整理/国土资源违法案件-导入.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19005" windowHeight="10950"/>
+    <workbookView windowWidth="19095" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
     <t>{Form=8} 8</t>
   </si>
@@ -54,28 +54,25 @@
     <t xml:space="preserve">    收回土地面积</t>
   </si>
   <si>
-    <t xml:space="preserve">    {Node=71}拆除建筑面积</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {Node=72}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {Node=73}</t>
+    <t xml:space="preserve">    拆除建筑面积{平方米}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    没收建筑面积（平方米）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    罚没款（万元）</t>
   </si>
   <si>
     <t>{Value=4}</t>
   </si>
   <si>
-    <t>{Node=74}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {Node=75}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {Node=76}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {Node=77}</t>
+    <t>矿产违法案件（件）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    立案（件）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    结案（件）</t>
   </si>
   <si>
     <t>分区土地违法案件立案</t>
@@ -87,7 +84,7 @@
     <t>{Quarter}涉案面积（亩）</t>
   </si>
   <si>
-    <t>{Area=1}</t>
+    <t>市本级</t>
   </si>
   <si>
     <t>{Value=2 Node=65}</t>
@@ -96,31 +93,31 @@
     <t>{Value=1 Node=66}</t>
   </si>
   <si>
-    <t xml:space="preserve">    其中:{Area=6}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          {Area=7}</t>
-  </si>
-  <si>
-    <t>{Area=2}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    其中：{Area=8}</t>
-  </si>
-  <si>
-    <t>{Area=3}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    其中：{Area=9}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          {Area=10}</t>
-  </si>
-  <si>
-    <t>{Area=4}</t>
-  </si>
-  <si>
-    <t>{Area=5}</t>
+    <t>其中：新城</t>
+  </si>
+  <si>
+    <t>产业集聚区</t>
+  </si>
+  <si>
+    <t>定海区</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    其中：金塘</t>
+  </si>
+  <si>
+    <t>普陀区</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    其中：六横</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          朱家尖</t>
+  </si>
+  <si>
+    <t>岱山县</t>
+  </si>
+  <si>
+    <t>嵊泗县</t>
   </si>
 </sst>
 </file>
@@ -129,8 +126,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -169,6 +166,52 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -178,12 +221,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -196,48 +255,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -249,14 +266,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -265,48 +302,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -339,61 +336,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,19 +480,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,97 +516,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,15 +535,6 @@
       <top/>
       <bottom style="medium">
         <color rgb="FF0099FF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,39 +555,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -610,6 +565,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,6 +603,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -647,10 +644,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -659,133 +656,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -811,17 +808,17 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1150,7 +1147,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A19" sqref="A19:A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1332,7 +1329,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>15</v>
@@ -1344,17 +1341,17 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" ht="14.25" spans="1:4">
+    <row r="18" spans="1:4">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1362,121 +1359,121 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="C19" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B26" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>24</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="D28" s="2"/>
     </row>
